--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-246172.8590932983</v>
+        <v>-248622.055984598</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12900019.6670755</v>
+        <v>12900019.66707551</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>212.1932647836604</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>361.6732453582518</v>
       </c>
       <c r="G2" t="n">
-        <v>85.17289288835305</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>115.0138334144182</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>127.3385186497853</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>190.0430581580011</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>152.4962006593508</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>22.46279061553195</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>114.8923160260107</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>298.8830960206517</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>62.85595033183674</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>58.28185552386401</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>110.5453063836779</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>86.58503643028843</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>194.8568206466581</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016435</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>246.423893224993</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428033</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.4849283993767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>171.1529885179048</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6229551553988</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>146.053516066753</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788180381</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796274</v>
+        <v>1484.172996824953</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392158</v>
+        <v>1115.210479884541</v>
       </c>
       <c r="D2" t="n">
-        <v>194.5422403324653</v>
+        <v>1115.210479884541</v>
       </c>
       <c r="E2" t="n">
-        <v>194.5422403324653</v>
+        <v>729.4222272862968</v>
       </c>
       <c r="F2" t="n">
-        <v>194.5422403324653</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919561</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943749</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218345</v>
+        <v>182.6877057396765</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218345</v>
+        <v>182.6877057396765</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>792.2622395052706</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>537.5777512993837</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>248.1605812624231</v>
+        <v>631.469835781224</v>
       </c>
       <c r="X4" t="n">
-        <v>248.1605812624231</v>
+        <v>403.4802848832067</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>182.6877057396765</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1398.916003345277</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1013.127750747033</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3061.278586813689</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3061.278586813689</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2708.509931543575</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2335.044173282495</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y5" t="n">
-        <v>1944.904841306683</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>523.3178199318208</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>234.2149530574645</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V7" t="n">
-        <v>234.2149530574645</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W7" t="n">
-        <v>234.2149530574645</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="X7" t="n">
-        <v>234.2149530574645</v>
+        <v>403.7945880458111</v>
       </c>
       <c r="Y7" t="n">
-        <v>234.2149530574645</v>
+        <v>403.7945880458111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1896.503151925171</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C8" t="n">
-        <v>1527.540634984759</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D8" t="n">
-        <v>1169.274936378009</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>783.4866837797645</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218339</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>2692.316069873278</v>
       </c>
       <c r="W8" t="n">
-        <v>2656.568750250372</v>
+        <v>2339.547414603163</v>
       </c>
       <c r="X8" t="n">
-        <v>2283.102991989293</v>
+        <v>1966.081656342083</v>
       </c>
       <c r="Y8" t="n">
-        <v>2283.102991989293</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.773976541745</v>
+        <v>739.2385409879457</v>
       </c>
       <c r="C10" t="n">
-        <v>163.8377936138381</v>
+        <v>570.3023580600388</v>
       </c>
       <c r="D10" t="n">
-        <v>163.8377936138381</v>
+        <v>420.1857186477031</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>272.27262506531</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>125.3826775673996</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>809.2250801781058</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T10" t="n">
-        <v>587.4584647476319</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U10" t="n">
-        <v>587.4584647476319</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V10" t="n">
-        <v>332.773976541745</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W10" t="n">
-        <v>332.773976541745</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X10" t="n">
-        <v>332.773976541745</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y10" t="n">
-        <v>332.773976541745</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.2139592434899</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687996</v>
+        <v>140.7528025687997</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131322</v>
+        <v>296.7657364131323</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629334</v>
+        <v>526.3143760629337</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936169</v>
+        <v>771.5995144936172</v>
       </c>
       <c r="N13" t="n">
         <v>1018.909846477608</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.027877484369</v>
+        <v>1227.02787748437</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377027</v>
+        <v>1386.046835377028</v>
       </c>
       <c r="Q13" t="n">
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.509837562355</v>
+        <v>1373.509837562356</v>
       </c>
       <c r="S13" t="n">
         <v>1190.65500321726</v>
       </c>
       <c r="T13" t="n">
-        <v>1190.65500321726</v>
+        <v>971.0535382402015</v>
       </c>
       <c r="U13" t="n">
-        <v>1190.65500321726</v>
+        <v>971.0535382402015</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.65500321726</v>
+        <v>774.2284668799408</v>
       </c>
       <c r="W13" t="n">
-        <v>1190.65500321726</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.65500321726</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.8624240737296</v>
+        <v>484.8112968429802</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5601,13 +5601,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.917417812163</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270429</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,7 +5756,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,22 +5826,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6078,16 +6078,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,58 +6449,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6613,34 +6613,34 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2437.724555511392</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273908</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123329</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938885</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192608</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7087,55 +7087,55 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
         <v>753.3092412490405</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7406,28 +7406,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7831,13 +7831,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>45.20280038345967</v>
       </c>
       <c r="G2" t="n">
-        <v>109.3237575285671</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>80.66178466833941</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>57.28082267716991</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.09910511159802</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194356</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.09972495271805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>115.0314858713394</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>35.40333084624581</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194126</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038485</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283688.0578045268</v>
+        <v>283688.057804527</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991063</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>293712.8836821238</v>
+        <v>293712.883682124</v>
       </c>
       <c r="F2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="I2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="K2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="L2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="M2" t="n">
+        <v>302679.9748837522</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
       </c>
-      <c r="I2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="J2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="L2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837524</v>
-      </c>
-      <c r="O2" t="n">
-        <v>302679.9748837523</v>
-      </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363175</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56759.27587051037</v>
+        <v>56759.27587051062</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835451</v>
+        <v>761.3882086835455</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26436,28 +26436,28 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189199</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189199</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.583971892</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.583971892</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>24037.44323498544</v>
+        <v>24037.44323498543</v>
       </c>
     </row>
     <row r="5">
@@ -26494,13 +26494,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1209749.90435497</v>
+        <v>-1209911.255060933</v>
       </c>
       <c r="C6" t="n">
-        <v>106359.9790336607</v>
+        <v>106359.97903366</v>
       </c>
       <c r="D6" t="n">
-        <v>106359.9790336604</v>
+        <v>106359.9790336601</v>
       </c>
       <c r="E6" t="n">
-        <v>-133583.4961578223</v>
+        <v>-133678.0146912686</v>
       </c>
       <c r="F6" t="n">
-        <v>185510.8610879531</v>
+        <v>185476.1231625179</v>
       </c>
       <c r="G6" t="n">
-        <v>185510.8610879532</v>
+        <v>185476.1231625174</v>
       </c>
       <c r="H6" t="n">
-        <v>185510.8610879532</v>
+        <v>185476.1231625174</v>
       </c>
       <c r="I6" t="n">
-        <v>185510.8610879533</v>
+        <v>185476.1231625175</v>
       </c>
       <c r="J6" t="n">
-        <v>-32020.34130932456</v>
+        <v>-32055.07923475985</v>
       </c>
       <c r="K6" t="n">
-        <v>185510.8610879528</v>
+        <v>185476.1231625175</v>
       </c>
       <c r="L6" t="n">
-        <v>185510.8610879533</v>
+        <v>185476.1231625175</v>
       </c>
       <c r="M6" t="n">
-        <v>100455.8331524412</v>
+        <v>100421.0952270056</v>
       </c>
       <c r="N6" t="n">
-        <v>185510.8610879534</v>
+        <v>185476.1231625175</v>
       </c>
       <c r="O6" t="n">
-        <v>185510.8610879532</v>
+        <v>185476.1231625174</v>
       </c>
       <c r="P6" t="n">
-        <v>161261.3866165734</v>
+        <v>161261.3866165736</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26960,10 +26960,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>170.5405768798202</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>216.4250752365333</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>33.60163960379417</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>92.21043062638394</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>216.8329875837103</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>98.49897129955113</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>123.9711720310372</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>104.6566332501585</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>107.9929497210597</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>264.8963081382981</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351642</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>79.22371894776397</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-1.059508860548864e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32321,16 +32321,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>553.3925020622922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023002</v>
+        <v>47.41024194023011</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649824</v>
+        <v>157.5888220649825</v>
       </c>
       <c r="L13" t="n">
-        <v>231.867312777577</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915995</v>
+        <v>247.7627660915996</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454456</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O13" t="n">
-        <v>210.220233340163</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925838</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214689</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>414.8381222824181</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
